--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf1-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf1-Fgfr1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.384145666666667</v>
+        <v>0.8775636666666666</v>
       </c>
       <c r="H2">
-        <v>4.152437</v>
+        <v>2.632691</v>
       </c>
       <c r="I2">
-        <v>0.1014617184198512</v>
+        <v>0.1887436506618166</v>
       </c>
       <c r="J2">
-        <v>0.1334061399754118</v>
+        <v>0.2083714858314108</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.743825</v>
+        <v>5.978421000000001</v>
       </c>
       <c r="N2">
-        <v>20.231475</v>
+        <v>17.935263</v>
       </c>
       <c r="O2">
-        <v>0.06175298453338176</v>
+        <v>0.05704457007880161</v>
       </c>
       <c r="P2">
-        <v>0.06809253940846915</v>
+        <v>0.06242884486533885</v>
       </c>
       <c r="Q2">
-        <v>9.334436150508333</v>
+        <v>5.246445053637</v>
       </c>
       <c r="R2">
-        <v>84.009925354575</v>
+        <v>47.21800548273301</v>
       </c>
       <c r="S2">
-        <v>0.006265563928311405</v>
+        <v>0.01076680040710684</v>
       </c>
       <c r="T2">
-        <v>0.00908396284360748</v>
+        <v>0.01300839116332929</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.384145666666667</v>
+        <v>0.8775636666666666</v>
       </c>
       <c r="H3">
-        <v>4.152437</v>
+        <v>2.632691</v>
       </c>
       <c r="I3">
-        <v>0.1014617184198512</v>
+        <v>0.1887436506618166</v>
       </c>
       <c r="J3">
-        <v>0.1334061399754118</v>
+        <v>0.2083714858314108</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>208.973595</v>
       </c>
       <c r="O3">
-        <v>0.6378547871531949</v>
+        <v>0.6646576013185088</v>
       </c>
       <c r="P3">
-        <v>0.7033368922862506</v>
+        <v>0.7273927426214574</v>
       </c>
       <c r="Q3">
-        <v>96.41663198900167</v>
+        <v>61.12921142157167</v>
       </c>
       <c r="R3">
-        <v>867.7496879010149</v>
+        <v>550.162902794145</v>
       </c>
       <c r="S3">
-        <v>0.06471784280689157</v>
+        <v>0.1254499021129816</v>
       </c>
       <c r="T3">
-        <v>0.09382945990221067</v>
+        <v>0.151567906563018</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.384145666666667</v>
+        <v>0.8775636666666666</v>
       </c>
       <c r="H4">
-        <v>4.152437</v>
+        <v>2.632691</v>
       </c>
       <c r="I4">
-        <v>0.1014617184198512</v>
+        <v>0.1887436506618166</v>
       </c>
       <c r="J4">
-        <v>0.1334061399754118</v>
+        <v>0.2083714858314108</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.263827666666667</v>
+        <v>1.290243</v>
       </c>
       <c r="N4">
-        <v>3.791482999999999</v>
+        <v>3.870729</v>
       </c>
       <c r="O4">
-        <v>0.01157282852869501</v>
+        <v>0.01231116999491725</v>
       </c>
       <c r="P4">
-        <v>0.01276089388411081</v>
+        <v>0.01347318632889677</v>
       </c>
       <c r="Q4">
-        <v>1.749321588230111</v>
+        <v>1.132270377971</v>
       </c>
       <c r="R4">
-        <v>15.743894294071</v>
+        <v>10.190433401739</v>
       </c>
       <c r="S4">
-        <v>0.001174199069499674</v>
+        <v>0.002323655168758901</v>
       </c>
       <c r="T4">
-        <v>0.001702381595715063</v>
+        <v>0.002807427854235671</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.384145666666667</v>
+        <v>0.8775636666666666</v>
       </c>
       <c r="H5">
-        <v>4.152437</v>
+        <v>2.632691</v>
       </c>
       <c r="I5">
-        <v>0.1014617184198512</v>
+        <v>0.1887436506618166</v>
       </c>
       <c r="J5">
-        <v>0.1334061399754118</v>
+        <v>0.2083714858314108</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.502036</v>
+        <v>27.1166075</v>
       </c>
       <c r="N5">
-        <v>61.004072</v>
+        <v>54.233215</v>
       </c>
       <c r="O5">
-        <v>0.2793061441162328</v>
+        <v>0.2587397603536297</v>
       </c>
       <c r="P5">
-        <v>0.205319788929729</v>
+        <v>0.1887743138075849</v>
       </c>
       <c r="Q5">
-        <v>42.21926095391067</v>
+        <v>23.79654950526083</v>
       </c>
       <c r="R5">
-        <v>253.315565723464</v>
+        <v>142.779297031565</v>
       </c>
       <c r="S5">
-        <v>0.02833888134725559</v>
+        <v>0.04883548694050762</v>
       </c>
       <c r="T5">
-        <v>0.02739092050168143</v>
+        <v>0.03933518425489148</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.384145666666667</v>
+        <v>0.8775636666666666</v>
       </c>
       <c r="H6">
-        <v>4.152437</v>
+        <v>2.632691</v>
       </c>
       <c r="I6">
-        <v>0.1014617184198512</v>
+        <v>0.1887436506618166</v>
       </c>
       <c r="J6">
-        <v>0.1334061399754118</v>
+        <v>0.2083714858314108</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.038909</v>
+        <v>0.759494</v>
       </c>
       <c r="N6">
-        <v>3.116727</v>
+        <v>2.278482</v>
       </c>
       <c r="O6">
-        <v>0.009513255668495419</v>
+        <v>0.00724689825414258</v>
       </c>
       <c r="P6">
-        <v>0.01048988549144043</v>
+        <v>0.007930912376722157</v>
       </c>
       <c r="Q6">
-        <v>1.438001390411</v>
+        <v>0.6665043394513334</v>
       </c>
       <c r="R6">
-        <v>12.942012513699</v>
+        <v>5.998539055061999</v>
       </c>
       <c r="S6">
-        <v>0.0009652312678929354</v>
+        <v>0.001367806032461616</v>
       </c>
       <c r="T6">
-        <v>0.001399415132197144</v>
+        <v>0.001652575995936321</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.458038666666666</v>
+        <v>2.458038666666667</v>
       </c>
       <c r="H7">
-        <v>7.374115999999999</v>
+        <v>7.374116000000001</v>
       </c>
       <c r="I7">
-        <v>0.1801810554109115</v>
+        <v>0.5286672739959656</v>
       </c>
       <c r="J7">
-        <v>0.2369096391566985</v>
+        <v>0.5836444564186148</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.743825</v>
+        <v>5.978421000000001</v>
       </c>
       <c r="N7">
-        <v>20.231475</v>
+        <v>17.935263</v>
       </c>
       <c r="O7">
-        <v>0.06175298453338176</v>
+        <v>0.05704457007880161</v>
       </c>
       <c r="P7">
-        <v>0.06809253940846915</v>
+        <v>0.06242884486533885</v>
       </c>
       <c r="Q7">
-        <v>16.57658261123333</v>
+        <v>14.695189983612</v>
       </c>
       <c r="R7">
-        <v>149.1892435011</v>
+        <v>132.256709852508</v>
       </c>
       <c r="S7">
-        <v>0.01112671792799842</v>
+        <v>0.03015759735983187</v>
       </c>
       <c r="T7">
-        <v>0.0161317789405237</v>
+        <v>0.03643624922627273</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.458038666666666</v>
+        <v>2.458038666666667</v>
       </c>
       <c r="H8">
-        <v>7.374115999999999</v>
+        <v>7.374116000000001</v>
       </c>
       <c r="I8">
-        <v>0.1801810554109115</v>
+        <v>0.5286672739959656</v>
       </c>
       <c r="J8">
-        <v>0.2369096391566985</v>
+        <v>0.5836444564186148</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>208.973595</v>
       </c>
       <c r="O8">
-        <v>0.6378547871531949</v>
+        <v>0.6646576013185088</v>
       </c>
       <c r="P8">
-        <v>0.7033368922862506</v>
+        <v>0.7273927426214574</v>
       </c>
       <c r="Q8">
-        <v>171.2217256074466</v>
+        <v>171.2217256074467</v>
       </c>
       <c r="R8">
         <v>1540.99553046702</v>
       </c>
       <c r="S8">
-        <v>0.114929348748165</v>
+        <v>0.3513827222297534</v>
       </c>
       <c r="T8">
-        <v>0.1666272893571293</v>
+        <v>0.4245387418701459</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.458038666666666</v>
+        <v>2.458038666666667</v>
       </c>
       <c r="H9">
-        <v>7.374115999999999</v>
+        <v>7.374116000000001</v>
       </c>
       <c r="I9">
-        <v>0.1801810554109115</v>
+        <v>0.5286672739959656</v>
       </c>
       <c r="J9">
-        <v>0.2369096391566985</v>
+        <v>0.5836444564186148</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.263827666666667</v>
+        <v>1.290243</v>
       </c>
       <c r="N9">
-        <v>3.791482999999999</v>
+        <v>3.870729</v>
       </c>
       <c r="O9">
-        <v>0.01157282852869501</v>
+        <v>0.01231116999491725</v>
       </c>
       <c r="P9">
-        <v>0.01276089388411081</v>
+        <v>0.01347318632889677</v>
       </c>
       <c r="Q9">
-        <v>3.106537272669777</v>
+        <v>3.171467183396</v>
       </c>
       <c r="R9">
-        <v>27.95883545402799</v>
+        <v>28.543204650564</v>
       </c>
       <c r="S9">
-        <v>0.002085204458389773</v>
+        <v>0.006508512680913831</v>
       </c>
       <c r="T9">
-        <v>0.003023178765401613</v>
+        <v>0.00786355051115567</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.458038666666666</v>
+        <v>2.458038666666667</v>
       </c>
       <c r="H10">
-        <v>7.374115999999999</v>
+        <v>7.374116000000001</v>
       </c>
       <c r="I10">
-        <v>0.1801810554109115</v>
+        <v>0.5286672739959656</v>
       </c>
       <c r="J10">
-        <v>0.2369096391566985</v>
+        <v>0.5836444564186148</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.502036</v>
+        <v>27.1166075</v>
       </c>
       <c r="N10">
-        <v>61.004072</v>
+        <v>54.233215</v>
       </c>
       <c r="O10">
-        <v>0.2793061441162328</v>
+        <v>0.2587397603536297</v>
       </c>
       <c r="P10">
-        <v>0.205319788929729</v>
+        <v>0.1887743138075849</v>
       </c>
       <c r="Q10">
-        <v>74.97518390005867</v>
+        <v>66.65366974382334</v>
       </c>
       <c r="R10">
-        <v>449.8511034003519</v>
+        <v>399.9220184629401</v>
       </c>
       <c r="S10">
-        <v>0.05032567582961498</v>
+        <v>0.1367872437805228</v>
       </c>
       <c r="T10">
-        <v>0.04864223710707159</v>
+        <v>0.1101770817680249</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.458038666666666</v>
+        <v>2.458038666666667</v>
       </c>
       <c r="H11">
-        <v>7.374115999999999</v>
+        <v>7.374116000000001</v>
       </c>
       <c r="I11">
-        <v>0.1801810554109115</v>
+        <v>0.5286672739959656</v>
       </c>
       <c r="J11">
-        <v>0.2369096391566985</v>
+        <v>0.5836444564186148</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.038909</v>
+        <v>0.759494</v>
       </c>
       <c r="N11">
-        <v>3.116727</v>
+        <v>2.278482</v>
       </c>
       <c r="O11">
-        <v>0.009513255668495419</v>
+        <v>0.00724689825414258</v>
       </c>
       <c r="P11">
-        <v>0.01048988549144043</v>
+        <v>0.007930912376722157</v>
       </c>
       <c r="Q11">
-        <v>2.553678493148</v>
+        <v>1.866865619101334</v>
       </c>
       <c r="R11">
-        <v>22.983106438332</v>
+        <v>16.801790571912</v>
       </c>
       <c r="S11">
-        <v>0.001714108446743341</v>
+        <v>0.00383119794494368</v>
       </c>
       <c r="T11">
-        <v>0.00248515498657224</v>
+        <v>0.004628833043015668</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.799863999999999</v>
+        <v>1.313898</v>
       </c>
       <c r="H12">
-        <v>19.599728</v>
+        <v>2.627796</v>
       </c>
       <c r="I12">
-        <v>0.7183572261692374</v>
+        <v>0.2825890753422177</v>
       </c>
       <c r="J12">
-        <v>0.6296842208678898</v>
+        <v>0.2079840577499744</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.743825</v>
+        <v>5.978421000000001</v>
       </c>
       <c r="N12">
-        <v>20.231475</v>
+        <v>17.935263</v>
       </c>
       <c r="O12">
-        <v>0.06175298453338176</v>
+        <v>0.05704457007880161</v>
       </c>
       <c r="P12">
-        <v>0.06809253940846915</v>
+        <v>0.06242884486533885</v>
       </c>
       <c r="Q12">
-        <v>66.08856783979999</v>
+        <v>7.855035395058001</v>
       </c>
       <c r="R12">
-        <v>396.5314070388</v>
+        <v>47.130212370348</v>
       </c>
       <c r="S12">
-        <v>0.04436070267707194</v>
+        <v>0.01612017231186288</v>
       </c>
       <c r="T12">
-        <v>0.04287679762433798</v>
+        <v>0.01298420447573683</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.799863999999999</v>
+        <v>1.313898</v>
       </c>
       <c r="H13">
-        <v>19.599728</v>
+        <v>2.627796</v>
       </c>
       <c r="I13">
-        <v>0.7183572261692374</v>
+        <v>0.2825890753422177</v>
       </c>
       <c r="J13">
-        <v>0.6296842208678898</v>
+        <v>0.2079840577499744</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>208.973595</v>
       </c>
       <c r="O13">
-        <v>0.6378547871531949</v>
+        <v>0.6646576013185088</v>
       </c>
       <c r="P13">
-        <v>0.7033368922862506</v>
+        <v>0.7273927426214574</v>
       </c>
       <c r="Q13">
-        <v>682.63760353036</v>
+        <v>91.52332950777</v>
       </c>
       <c r="R13">
-        <v>4095.825621182159</v>
+        <v>549.1399770466199</v>
       </c>
       <c r="S13">
-        <v>0.4582075955981384</v>
+        <v>0.1878249769757738</v>
       </c>
       <c r="T13">
-        <v>0.4428801430269106</v>
+        <v>0.1512860941882935</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>9.799863999999999</v>
+        <v>1.313898</v>
       </c>
       <c r="H14">
-        <v>19.599728</v>
+        <v>2.627796</v>
       </c>
       <c r="I14">
-        <v>0.7183572261692374</v>
+        <v>0.2825890753422177</v>
       </c>
       <c r="J14">
-        <v>0.6296842208678898</v>
+        <v>0.2079840577499744</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.263827666666667</v>
+        <v>1.290243</v>
       </c>
       <c r="N14">
-        <v>3.791482999999999</v>
+        <v>3.870729</v>
       </c>
       <c r="O14">
-        <v>0.01157282852869501</v>
+        <v>0.01231116999491725</v>
       </c>
       <c r="P14">
-        <v>0.01276089388411081</v>
+        <v>0.01347318632889677</v>
       </c>
       <c r="Q14">
-        <v>12.38533925277066</v>
+        <v>1.695247697214</v>
       </c>
       <c r="R14">
-        <v>74.31203551662398</v>
+        <v>10.171486183284</v>
       </c>
       <c r="S14">
-        <v>0.008313425000805563</v>
+        <v>0.003479002145244522</v>
       </c>
       <c r="T14">
-        <v>0.008035333522994136</v>
+        <v>0.002802207963505433</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>9.799863999999999</v>
+        <v>1.313898</v>
       </c>
       <c r="H15">
-        <v>19.599728</v>
+        <v>2.627796</v>
       </c>
       <c r="I15">
-        <v>0.7183572261692374</v>
+        <v>0.2825890753422177</v>
       </c>
       <c r="J15">
-        <v>0.6296842208678898</v>
+        <v>0.2079840577499744</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>30.502036</v>
+        <v>27.1166075</v>
       </c>
       <c r="N15">
-        <v>61.004072</v>
+        <v>54.233215</v>
       </c>
       <c r="O15">
-        <v>0.2793061441162328</v>
+        <v>0.2587397603536297</v>
       </c>
       <c r="P15">
-        <v>0.205319788929729</v>
+        <v>0.1887743138075849</v>
       </c>
       <c r="Q15">
-        <v>298.915804523104</v>
+        <v>35.628456361035</v>
       </c>
       <c r="R15">
-        <v>1195.663218092416</v>
+        <v>142.51382544414</v>
       </c>
       <c r="S15">
-        <v>0.2006415869393622</v>
+        <v>0.07311702963259921</v>
       </c>
       <c r="T15">
-        <v>0.129286631320976</v>
+        <v>0.03926204778466854</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9.799863999999999</v>
+        <v>1.313898</v>
       </c>
       <c r="H16">
-        <v>19.599728</v>
+        <v>2.627796</v>
       </c>
       <c r="I16">
-        <v>0.7183572261692374</v>
+        <v>0.2825890753422177</v>
       </c>
       <c r="J16">
-        <v>0.6296842208678898</v>
+        <v>0.2079840577499744</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.038909</v>
+        <v>0.759494</v>
       </c>
       <c r="N16">
-        <v>3.116727</v>
+        <v>2.278482</v>
       </c>
       <c r="O16">
-        <v>0.009513255668495419</v>
+        <v>0.00724689825414258</v>
       </c>
       <c r="P16">
-        <v>0.01048988549144043</v>
+        <v>0.007930912376722157</v>
       </c>
       <c r="Q16">
-        <v>10.181166908376</v>
+        <v>0.9978976476120001</v>
       </c>
       <c r="R16">
-        <v>61.087001450256</v>
+        <v>5.987385885671999</v>
       </c>
       <c r="S16">
-        <v>0.006833915953859143</v>
+        <v>0.002047894276737283</v>
       </c>
       <c r="T16">
-        <v>0.00660531537267105</v>
+        <v>0.001649503337770168</v>
       </c>
     </row>
   </sheetData>
